--- a/src/test/test_data/sindriUPIS.xlsx
+++ b/src/test/test_data/sindriUPIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QA projekti\Automation_projekti\contika\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3E9AB-4552-4FFB-A283-DD79515B178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7FF10-4792-4AF6-BED1-659A262412D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4350" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{47DA7BBC-4371-411F-99D1-AFF8C5BF69E2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t>tc_id</t>
   </si>
@@ -253,7 +253,13 @@
     <t>Username provided already exists</t>
   </si>
   <si>
-    <t xml:space="preserve"> Username provided already exists</t>
+    <t>invalidemail@</t>
+  </si>
+  <si>
+    <t>sasa_prezime_1</t>
+  </si>
+  <si>
+    <t>sasa_ime_1</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -448,6 +454,7 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A605BFD-FDFD-47E6-B86E-5AAA3E9DD62F}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1669,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>39</v>
@@ -1671,19 +1678,19 @@
         <v>51</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>66</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>63</v>
